--- a/biology/Biochimie/Glycylglycine/Glycylglycine.xlsx
+++ b/biology/Biochimie/Glycylglycine/Glycylglycine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La glycylglycine est le dipeptide de glycine, ce qui fait d'elle le dipeptide le plus simple[4]. Ce composé a été synthétisé pour la première fois en 1901 par Emil Fischer et Ernest Fourneau[5], par ébullition de glycine anhydride (2,5-dioxopipérazine) avec de l'acide chlorhydrique[6]. Depuis lors, un procédé par composition avec une base[7] et d'autres méthodes de synthèse ont été publiés[8]. La glycylglycine est elle-même utilisée dans la synthèse de peptides plus complexes[9].
-En raison de sa faible toxicité, la glycylglycine est utile comme tampon pour les systèmes biologiques à des pH situés entre 2,5-3,8 et 7,5-8,9[10], toutefois sa relative instabilité en solution en rend la conservation difficile[11].
-La glycylglycine a également été utilisée pour solubiliser des protéines recombinantes chez E. coli. Après son adjonction à différentes concentrations, on a pu constater une amélioration de la solubilité de ces protéines après la lyse cellulaire[12].
+La glycylglycine est le dipeptide de glycine, ce qui fait d'elle le dipeptide le plus simple. Ce composé a été synthétisé pour la première fois en 1901 par Emil Fischer et Ernest Fourneau, par ébullition de glycine anhydride (2,5-dioxopipérazine) avec de l'acide chlorhydrique. Depuis lors, un procédé par composition avec une base et d'autres méthodes de synthèse ont été publiés. La glycylglycine est elle-même utilisée dans la synthèse de peptides plus complexes.
+En raison de sa faible toxicité, la glycylglycine est utile comme tampon pour les systèmes biologiques à des pH situés entre 2,5-3,8 et 7,5-8,9, toutefois sa relative instabilité en solution en rend la conservation difficile.
+La glycylglycine a également été utilisée pour solubiliser des protéines recombinantes chez E. coli. Après son adjonction à différentes concentrations, on a pu constater une amélioration de la solubilité de ces protéines après la lyse cellulaire.
 </t>
         </is>
       </c>
